--- a/MedicalLink/Templates/BC_109_DSCacKhoaDuocHuongK3.xlsx
+++ b/MedicalLink/Templates/BC_109_DSCacKhoaDuocHuongK3.xlsx
@@ -151,7 +151,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,19 +200,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -322,12 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -346,13 +328,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,7 +679,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,98 +694,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -827,10 +815,10 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="16">
         <f t="shared" ref="C8:D8" si="0">SUM(C7:C7)</f>
         <v>0</v>
@@ -861,7 +849,7 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <f>H8*0.05</f>
         <v>0</v>
       </c>
